--- a/results/sea_g/scores_sea_g.xlsx
+++ b/results/sea_g/scores_sea_g.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,13 +408,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8505</v>
+        <v>0.8821</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8915999999999999</v>
+        <v>0.8914</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9064</v>
+        <v>0.9015</v>
       </c>
     </row>
     <row r="3">
@@ -432,13 +432,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8438</v>
+        <v>0.879</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8905</v>
+        <v>0.8894</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9058</v>
+        <v>0.9003</v>
       </c>
     </row>
     <row r="4">
@@ -456,13 +456,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0355</v>
+        <v>0.0233</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0203</v>
+        <v>0.0255</v>
       </c>
       <c r="F4" t="n">
-        <v>0.013</v>
+        <v>0.0188</v>
       </c>
     </row>
     <row r="5">
@@ -471,22 +471,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>min</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8165</v>
+        <v>0.7282</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8655</v>
+        <v>0.7848000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.888</v>
+        <v>0.8022</v>
       </c>
     </row>
     <row r="6">
@@ -495,22 +495,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>max</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.9275</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8653999999999999</v>
+        <v>0.9433</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8853</v>
+        <v>0.9426</v>
       </c>
     </row>
     <row r="7">
@@ -519,22 +519,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0366</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0204</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0132</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -543,22 +549,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>training time</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>median</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>221.9487</v>
+        <v>0.854</v>
       </c>
       <c r="E8" t="n">
-        <v>41.2717</v>
+        <v>0.866</v>
       </c>
       <c r="F8" t="n">
-        <v>322.6588</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="9">
@@ -567,22 +573,322 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8639</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8787</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0266</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0199</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.786</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.924</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>median</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6907</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7138</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7448</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6835</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7411</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0503</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0427</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5266999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.5693</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7857</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8282</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8453000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>training time</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>563.0388</v>
+      </c>
+      <c r="E20" t="n">
+        <v>32.2681</v>
+      </c>
+      <c r="F20" t="n">
+        <v>206.9099</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>prediction time</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>3.7894</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9.6616</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12.3658</v>
+      <c r="D21" t="n">
+        <v>4.6451</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7.6185</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9.4961</v>
       </c>
     </row>
   </sheetData>
